--- a/Mercado.xlsx
+++ b/Mercado.xlsx
@@ -473,11 +473,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Laranjas</t>
+          <t>laranja</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C2" t="n">
         <v>2.72</v>
@@ -489,7 +489,7 @@
         <v>0.05</v>
       </c>
       <c r="F2" t="n">
-        <v>55.78000000000001</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1001</v>
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Maçãs</t>
+          <t>maçã</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -523,7 +523,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -548,7 +548,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alface</t>
+          <t>alface</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -573,7 +573,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tomates</t>
+          <t>tomates</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Abóbora</t>
+          <t>abobora</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -623,7 +623,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aipo</t>
+          <t>aipo</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -648,7 +648,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pepino</t>
+          <t>pepino</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cogumelos</t>
+          <t>cogumelo</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -698,11 +698,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Leite</t>
+          <t>leite</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C11" t="n">
         <v>4.46</v>
@@ -723,7 +723,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Queijo</t>
+          <t>picanha</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -748,11 +748,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ovos</t>
+          <t>ovos</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C13" t="n">
         <v>7.13</v>
@@ -773,7 +773,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Queijo Cottage</t>
+          <t>queijo</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -798,7 +798,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Coalhada</t>
+          <t>coalhada</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -823,7 +823,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Iogurte</t>
+          <t>iogurte</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -848,7 +848,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Carne</t>
+          <t>carne</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -873,7 +873,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Salmão</t>
+          <t>salmão</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -898,7 +898,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Arroz</t>
+          <t>arroz</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -923,7 +923,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Azeite</t>
+          <t>azeite</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -948,7 +948,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bolachas e biscoitos</t>
+          <t>biscoitos</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -973,7 +973,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Café</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -998,11 +998,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chá</t>
+          <t>chá</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C23" t="n">
         <v>2.59</v>
@@ -1023,7 +1023,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Atum</t>
+          <t>atum</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1048,7 +1048,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Extrato de tomate</t>
+          <t>extrato de tomate</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1073,7 +1073,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Farofa</t>
+          <t>farofa</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1098,7 +1098,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Feijão</t>
+          <t>feijão</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1123,7 +1123,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Leite em pó</t>
+          <t>leite em pó</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1148,7 +1148,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Macarrão</t>
+          <t>macarrão</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1173,7 +1173,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Maionese</t>
+          <t>maionese</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1198,7 +1198,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Óleo</t>
+          <t>oleo</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1223,7 +1223,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tempero pronto.</t>
+          <t>macarão</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1248,7 +1248,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sardinha</t>
+          <t>sardinha</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1273,7 +1273,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Milho</t>
+          <t>milho</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1298,11 +1298,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ervilha</t>
+          <t>ervilha</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C35" t="n">
         <v>2.03</v>
@@ -1314,7 +1314,7 @@
         <v>0.1</v>
       </c>
       <c r="F35" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1034</v>
